--- a/Doku/DA/Projektplan_Steiner.xlsx
+++ b/Doku/DA/Projektplan_Steiner.xlsx
@@ -1375,8 +1375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="AL16" sqref="AL16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="AL38" sqref="AL38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
